--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Ror2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +531,359 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1599003333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.479701</v>
+      </c>
+      <c r="I2">
+        <v>0.0264777194346773</v>
+      </c>
+      <c r="J2">
+        <v>0.02647771943467731</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>0.1378523333333333</v>
+      </c>
+      <c r="N2">
+        <v>0.413557</v>
+      </c>
+      <c r="O2">
+        <v>0.01719056794796269</v>
+      </c>
+      <c r="P2">
+        <v>0.01719056794796269</v>
+      </c>
+      <c r="Q2">
+        <v>0.02204263405077778</v>
+      </c>
+      <c r="R2">
+        <v>0.198383706457</v>
+      </c>
+      <c r="S2">
+        <v>0.0004551670350489126</v>
+      </c>
+      <c r="T2">
+        <v>0.0004551670350489126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>5.85400087977297</v>
-      </c>
-      <c r="H2">
-        <v>5.85400087977297</v>
-      </c>
-      <c r="I2">
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.1599003333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.479701</v>
+      </c>
+      <c r="I3">
+        <v>0.0264777194346773</v>
+      </c>
+      <c r="J3">
+        <v>0.02647771943467731</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="M3">
+        <v>7.692787333333334</v>
+      </c>
+      <c r="N3">
+        <v>23.078362</v>
+      </c>
+      <c r="O3">
+        <v>0.9593118967607375</v>
+      </c>
+      <c r="P3">
+        <v>0.9593118967607375</v>
+      </c>
+      <c r="Q3">
+        <v>1.230079258862445</v>
+      </c>
+      <c r="R3">
+        <v>11.070713329762</v>
+      </c>
+      <c r="S3">
+        <v>0.02540039125277893</v>
+      </c>
+      <c r="T3">
+        <v>0.02540039125277893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1599003333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.479701</v>
+      </c>
+      <c r="I4">
+        <v>0.0264777194346773</v>
+      </c>
+      <c r="J4">
+        <v>0.02647771943467731</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1884283333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.565285</v>
+      </c>
+      <c r="O4">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="P4">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="Q4">
+        <v>0.03012975330944444</v>
+      </c>
+      <c r="R4">
+        <v>0.271167779785</v>
+      </c>
+      <c r="S4">
+        <v>0.0006221611468494659</v>
+      </c>
+      <c r="T4">
+        <v>0.0006221611468494661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="G5">
+        <v>5.879152</v>
+      </c>
+      <c r="H5">
+        <v>17.637456</v>
+      </c>
+      <c r="I5">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J5">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1378523333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.413557</v>
+      </c>
+      <c r="O5">
+        <v>0.01719056794796269</v>
+      </c>
+      <c r="P5">
+        <v>0.01719056794796269</v>
+      </c>
+      <c r="Q5">
+        <v>0.8104548212213334</v>
+      </c>
+      <c r="R5">
+        <v>7.294093390992</v>
+      </c>
+      <c r="S5">
+        <v>0.01673540091291378</v>
+      </c>
+      <c r="T5">
+        <v>0.01673540091291378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>7.67332078008265</v>
-      </c>
-      <c r="N2">
-        <v>7.67332078008265</v>
-      </c>
-      <c r="O2">
+      <c r="G6">
+        <v>5.879152</v>
+      </c>
+      <c r="H6">
+        <v>17.637456</v>
+      </c>
+      <c r="I6">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J6">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="M6">
+        <v>7.692787333333334</v>
+      </c>
+      <c r="N6">
+        <v>23.078362</v>
+      </c>
+      <c r="O6">
+        <v>0.9593118967607375</v>
+      </c>
+      <c r="P6">
+        <v>0.9593118967607375</v>
+      </c>
+      <c r="Q6">
+        <v>45.22706603634134</v>
+      </c>
+      <c r="R6">
+        <v>407.043594327072</v>
+      </c>
+      <c r="S6">
+        <v>0.9339115055079585</v>
+      </c>
+      <c r="T6">
+        <v>0.9339115055079587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>44.91962659738405</v>
-      </c>
-      <c r="R2">
-        <v>44.91962659738405</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="G7">
+        <v>5.879152</v>
+      </c>
+      <c r="H7">
+        <v>17.637456</v>
+      </c>
+      <c r="I7">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J7">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1884283333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.565285</v>
+      </c>
+      <c r="O7">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="P7">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="Q7">
+        <v>1.107798812773333</v>
+      </c>
+      <c r="R7">
+        <v>9.970189314960001</v>
+      </c>
+      <c r="S7">
+        <v>0.02287537414445039</v>
+      </c>
+      <c r="T7">
+        <v>0.02287537414445039</v>
       </c>
     </row>
   </sheetData>
